--- a/HydroServerTools/Templates/ODMGuide.xlsx
+++ b/HydroServerTools/Templates/ODMGuide.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="246">
   <si>
     <t>Field Name</t>
   </si>
@@ -1004,9 +1004,6 @@
     <t>Code used by the organization that collects the data to identify the variable.</t>
   </si>
   <si>
-    <t>Numerica value that defines the category.</t>
-  </si>
-  <si>
     <t>Definition of categorical variable value.</t>
   </si>
   <si>
@@ -1070,6 +1067,15 @@
       </rPr>
       <t xml:space="preserve"> All controlled vocabulary fields are mandatory although "Unknown" is a valid value for some.</t>
     </r>
+  </si>
+  <si>
+    <t>Numerical value that defines the category.</t>
+  </si>
+  <si>
+    <t>Mandatory if</t>
+  </si>
+  <si>
+    <t>These fields are mandotory if a condition of the value of the field is met</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,6 +1458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,7 +1705,7 @@
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1723,51 +1735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1796,6 +1763,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2141,45 +2158,45 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="20"/>
+      <c r="B5" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2221,18 +2238,18 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -2263,82 +2280,92 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="7"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="B26" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B26:J27"/>
-    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B23:J23"/>
     <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B22:L22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2633,7 +2660,7 @@
       <c r="P5" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2648,7 +2675,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2663,13 +2690,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2691,17 +2718,17 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -2709,10 +2736,10 @@
         <v>227</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2772,7 +2799,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2783,14 +2810,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2850,10 +2877,10 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2862,10 +2889,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2932,14 +2959,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2978,7 +3005,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>52</v>
@@ -2996,7 +3023,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -3007,14 +3034,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3082,14 +3109,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3113,7 +3140,7 @@
   <dimension ref="A2:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A27"/>
+      <selection activeCell="B28" sqref="B28:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,572 +3149,574 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B24:P25"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B12:P13"/>
+    <mergeCell ref="B14:P15"/>
+    <mergeCell ref="B16:P17"/>
+    <mergeCell ref="B18:P19"/>
+    <mergeCell ref="B22:P23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B26:P27"/>
     <mergeCell ref="B28:P29"/>
@@ -3704,13 +3733,11 @@
     <mergeCell ref="B6:P7"/>
     <mergeCell ref="B8:P9"/>
     <mergeCell ref="B10:P11"/>
-    <mergeCell ref="B24:P25"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B12:P13"/>
-    <mergeCell ref="B14:P15"/>
-    <mergeCell ref="B16:P17"/>
-    <mergeCell ref="B18:P19"/>
-    <mergeCell ref="B22:P23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
